--- a/earlywarning-pom/earlywarning-config/src/baf-instances/32_Inst_Variable_BIR.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/32_Inst_Variable_BIR.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="2"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="313">
   <si>
     <t>Variable</t>
   </si>
@@ -972,18 +972,40 @@
   </si>
   <si>
     <t>BIR_IND_225_STRING</t>
+  </si>
+  <si>
+    <t>IND_55</t>
+  </si>
+  <si>
+    <t>55 - Forborne NPE</t>
+  </si>
+  <si>
+    <t>BIR_IND_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each Client Homogeneous NDG, the indicator is "true" (value 1) in presence of amount of all exposures that would be defined as forborne NPE as defined in EBA/ITS/2013/03&gt;0, 0 otherwise </t>
+  </si>
+  <si>
+    <t>BIR_IND_55_STRING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1086,42 +1108,46 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2151,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4406,6 +4432,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" t="s">
+        <v>310</v>
+      </c>
+      <c r="D56" t="s">
+        <v>311</v>
+      </c>
+      <c r="E56" t="s">
+        <v>308</v>
+      </c>
+      <c r="F56" t="s">
+        <v>309</v>
+      </c>
+      <c r="G56">
+        <v>55</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:M55"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4416,11 +4483,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5364,6 +5431,23 @@
         <v>23</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>312</v>
+      </c>
+      <c r="C56" t="s">
+        <v>312</v>
+      </c>
+      <c r="E56" t="s">
+        <v>310</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -5376,7 +5460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/32_Inst_Variable_BIR.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/32_Inst_Variable_BIR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$56</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="318">
   <si>
     <t>Variable</t>
   </si>
@@ -987,18 +987,40 @@
   </si>
   <si>
     <t>BIR_IND_55_STRING</t>
+  </si>
+  <si>
+    <t>EXPOSURE</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>BIR_EXPOSURE</t>
+  </si>
+  <si>
+    <t>IsCustomField</t>
+  </si>
+  <si>
+    <t>BIR_EXPOSURE_REAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1097,7 +1119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1105,53 +1127,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,11 +1293,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>544210</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>923925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1309,11 +1357,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>544210</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>923925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1367,11 +1421,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>544210</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>923925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1425,11 +1485,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>544210</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>923925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1483,11 +1549,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>544210</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>923925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1545,7 +1617,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1589,11 +1667,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>190035</xdr:rowOff>
+      <xdr:rowOff>180510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1647,11 +1731,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>190035</xdr:rowOff>
+      <xdr:rowOff>180510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1705,11 +1795,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>190035</xdr:rowOff>
+      <xdr:rowOff>180510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1763,11 +1859,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>190035</xdr:rowOff>
+      <xdr:rowOff>180510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1821,11 +1923,17 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1179270</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>190035</xdr:rowOff>
+      <xdr:rowOff>180510</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1883,7 +1991,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2177,10 +2291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2315,7 @@
     <col min="14" max="1023" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2217,8 +2331,9 @@
       <c r="K1" s="9"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2258,8 +2373,11 @@
       <c r="M2" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N2" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2299,8 +2417,11 @@
       <c r="M3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2340,8 +2461,11 @@
       <c r="M4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -2381,151 +2505,163 @@
       <c r="M5" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>205</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>112</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G7" s="16">
         <v>4</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17" t="s">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="K7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>206</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>113</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G8" s="6">
         <v>5</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>207</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>114</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G9" s="6">
         <v>6</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="75.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="6">
-        <v>7</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -2545,28 +2681,31 @@
       <c r="M9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="16">
-        <v>8</v>
+        <v>160</v>
+      </c>
+      <c r="G10" s="6">
+        <v>7</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -2586,28 +2725,31 @@
       <c r="M10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="6">
-        <v>9</v>
+        <v>161</v>
+      </c>
+      <c r="G11" s="16">
+        <v>8</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -2627,69 +2769,75 @@
       <c r="M11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="6">
+        <v>9</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>211</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>118</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>163</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="6">
         <v>10</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="6">
-        <v>11</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -2709,69 +2857,75 @@
       <c r="M13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="6">
+        <v>11</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
         <v>213</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>120</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="16">
-        <v>12</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G15" s="6">
-        <v>13</v>
+      <c r="G15" s="16">
+        <v>12</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -2791,28 +2945,31 @@
       <c r="M15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G16" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -2832,28 +2989,31 @@
       <c r="M16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G17" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -2873,28 +3033,31 @@
       <c r="M17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="16">
-        <v>16</v>
+        <v>168</v>
+      </c>
+      <c r="G18" s="6">
+        <v>15</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -2914,28 +3077,31 @@
       <c r="M18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="6">
-        <v>17</v>
+        <v>169</v>
+      </c>
+      <c r="G19" s="16">
+        <v>16</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -2955,28 +3121,31 @@
       <c r="M19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G20" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -2996,28 +3165,31 @@
       <c r="M20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G21" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -3037,28 +3209,31 @@
       <c r="M21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="90.75" x14ac:dyDescent="0.3">
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
-      </c>
-      <c r="G22" s="16">
-        <v>20</v>
+        <v>172</v>
+      </c>
+      <c r="G22" s="6">
+        <v>19</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -3078,69 +3253,75 @@
       <c r="M22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="16">
+        <v>20</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
         <v>222</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D24" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>129</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="6">
         <v>21</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="6">
-        <v>22</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -3160,28 +3341,31 @@
       <c r="M24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G25" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -3201,28 +3385,31 @@
       <c r="M25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="16">
-        <v>24</v>
+        <v>176</v>
+      </c>
+      <c r="G26" s="6">
+        <v>23</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3242,69 +3429,75 @@
       <c r="M26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="16">
+        <v>24</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
         <v>226</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>133</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>178</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="6">
         <v>25</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="6">
-        <v>26</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -3324,28 +3517,31 @@
       <c r="M28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G29" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3365,28 +3561,31 @@
       <c r="M29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" s="16">
-        <v>28</v>
+        <v>180</v>
+      </c>
+      <c r="G30" s="6">
+        <v>27</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -3406,28 +3605,31 @@
       <c r="M30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="90.75" x14ac:dyDescent="0.3">
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="6">
-        <v>29</v>
+        <v>181</v>
+      </c>
+      <c r="G31" s="16">
+        <v>28</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -3447,28 +3649,31 @@
       <c r="M31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G32" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -3488,28 +3693,31 @@
       <c r="M32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G33" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -3529,28 +3737,31 @@
       <c r="M33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" t="s">
-        <v>185</v>
-      </c>
-      <c r="G34" s="16">
-        <v>32</v>
+        <v>184</v>
+      </c>
+      <c r="G34" s="6">
+        <v>31</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -3570,28 +3781,31 @@
       <c r="M34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
-      </c>
-      <c r="G35" s="6">
-        <v>33</v>
+        <v>185</v>
+      </c>
+      <c r="G35" s="16">
+        <v>32</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -3611,28 +3825,31 @@
       <c r="M35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G36" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -3652,28 +3869,31 @@
       <c r="M36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G37" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -3693,28 +3913,31 @@
       <c r="M37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
-      </c>
-      <c r="G38" s="16">
-        <v>36</v>
+        <v>188</v>
+      </c>
+      <c r="G38" s="6">
+        <v>35</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -3734,28 +3957,31 @@
       <c r="M38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
-      </c>
-      <c r="G39" s="6">
-        <v>37</v>
+        <v>189</v>
+      </c>
+      <c r="G39" s="16">
+        <v>36</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -3775,28 +4001,31 @@
       <c r="M39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G40" s="6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -3816,28 +4045,31 @@
       <c r="M40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G41" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -3857,28 +4089,31 @@
       <c r="M41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F42" t="s">
-        <v>193</v>
-      </c>
-      <c r="G42" s="16">
-        <v>40</v>
+        <v>192</v>
+      </c>
+      <c r="G42" s="6">
+        <v>39</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -3898,28 +4133,31 @@
       <c r="M42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F43" t="s">
-        <v>194</v>
-      </c>
-      <c r="G43" s="6">
-        <v>41</v>
+        <v>193</v>
+      </c>
+      <c r="G43" s="16">
+        <v>40</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -3939,28 +4177,31 @@
       <c r="M43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G44" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -3980,28 +4221,31 @@
       <c r="M44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G45" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4021,28 +4265,31 @@
       <c r="M45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>197</v>
-      </c>
-      <c r="G46" s="16">
-        <v>44</v>
+        <v>196</v>
+      </c>
+      <c r="G46" s="6">
+        <v>43</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4062,28 +4309,31 @@
       <c r="M46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" t="s">
-        <v>198</v>
-      </c>
-      <c r="G47" s="6">
-        <v>45</v>
+        <v>197</v>
+      </c>
+      <c r="G47" s="16">
+        <v>44</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4103,28 +4353,31 @@
       <c r="M47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G48" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4144,28 +4397,31 @@
       <c r="M48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G49" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4185,69 +4441,75 @@
       <c r="M49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" s="6">
+        <v>47</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
         <v>249</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>249</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>156</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>201</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G51" s="16">
         <v>48</v>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L50" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" t="s">
-        <v>250</v>
-      </c>
-      <c r="C51" t="s">
-        <v>250</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" s="6">
-        <v>49</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4267,28 +4529,31 @@
       <c r="M51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G52" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4308,28 +4573,31 @@
       <c r="M52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G53" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4349,28 +4617,31 @@
       <c r="M53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="165.75" x14ac:dyDescent="0.3">
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" s="16">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="G54" s="6">
+        <v>51</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -4390,28 +4661,31 @@
       <c r="M54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="165.75" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="16">
         <v>52</v>
-      </c>
-      <c r="F55" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" s="6">
-        <v>53</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -4431,50 +4705,100 @@
       <c r="M55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B56" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="6">
+        <v>53</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
         <v>310</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>310</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>311</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>308</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>309</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <v>55</v>
       </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="19" t="s">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K56" s="20" t="b">
+      <c r="K57" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" t="b">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M55"/>
+  <autoFilter ref="A2:M56"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4483,11 +4807,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4586,13 +4910,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
@@ -4603,33 +4927,33 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>259</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>259</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4637,13 +4961,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -4654,13 +4978,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -4671,13 +4995,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -4688,16 +5012,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4705,13 +5029,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -4722,16 +5046,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4739,13 +5063,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -4756,13 +5080,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -4773,13 +5097,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -4790,13 +5114,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
@@ -4807,13 +5131,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
@@ -4824,13 +5148,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -4841,13 +5165,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -4858,13 +5182,13 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4875,16 +5199,16 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4892,13 +5216,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -4909,13 +5233,13 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F25" t="s">
         <v>23</v>
@@ -4926,13 +5250,13 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F26" t="s">
         <v>23</v>
@@ -4943,16 +5267,16 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4960,13 +5284,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -4977,13 +5301,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -4994,13 +5318,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -5011,13 +5335,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -5028,13 +5352,13 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -5045,13 +5369,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -5062,13 +5386,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -5079,13 +5403,13 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -5096,13 +5420,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -5113,13 +5437,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -5130,13 +5454,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -5147,13 +5471,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -5164,13 +5488,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -5181,13 +5505,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -5198,13 +5522,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -5215,13 +5539,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -5232,13 +5556,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -5249,13 +5573,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -5266,13 +5590,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -5283,13 +5607,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -5300,13 +5624,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -5317,13 +5641,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -5334,16 +5658,16 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C50" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5351,13 +5675,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F51" t="s">
         <v>23</v>
@@ -5368,13 +5692,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C52" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F52" t="s">
         <v>23</v>
@@ -5385,13 +5709,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F53" t="s">
         <v>23</v>
@@ -5402,13 +5726,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F54" t="s">
         <v>23</v>
@@ -5419,13 +5743,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F55" t="s">
         <v>23</v>
@@ -5436,15 +5760,32 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C56" t="s">
+        <v>307</v>
+      </c>
+      <c r="E56" t="s">
+        <v>254</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
         <v>312</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>312</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>310</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>23</v>
       </c>
     </row>
